--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已有资源，需要下一步对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快递资源确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,20 +145,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、研发人员落实
+    <t>只针对微信陆陆畅版本做推广，捎带支付宝版本。寻找第三方合作，需要费用支持。预计费用1万内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上述计划截至时间节点为20180415
+2、以上完成为1.0版本
+3、持续迭代与运营计划，不断更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、研发人员落实-基本到位
 2、需要严谨的开发计划
 3、研发计划须在20180228完成
 4、涉及扫码、快递单套打部分，方案在20180303前确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只针对微信陆陆畅版本做推广，捎带支付宝版本。寻找第三方合作，需要费用支持。预计费用1万内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、上述计划截至时间节点为20180415
-2、以上完成为1.0版本
-3、持续迭代与运营计划，不断更新</t>
+    <t>已经打样。码出来后续跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,42 +240,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +560,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -575,334 +575,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20180222</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20180228</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20180315</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20180331</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20180415</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20180303</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20180305</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20180305</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20180320</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20180405</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9">
-        <v>20180222</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9">
-        <v>20180228</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11">
-        <v>20180315</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11">
-        <v>20180331</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11">
-        <v>20180415</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9">
-        <v>20180303</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="9">
-        <v>20180305</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>3</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11">
-        <v>20180305</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9">
-        <v>20180320</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9">
-        <v>20180405</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>3</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -646,7 +646,7 @@
         <v>20180228</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4"/>
     </row>

--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -170,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +192,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +210,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,15 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,6 +292,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +602,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -575,24 +617,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -615,106 +657,106 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="17">
         <v>20180222</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="17">
         <v>20180228</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="20">
         <v>20180315</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>20180331</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>20180415</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -737,74 +779,74 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="21">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="23">
         <v>20180303</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="21">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="23">
         <v>20180305</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="20">
         <v>20180305</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -827,72 +869,72 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>20180320</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>20180405</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <t>已完成</t>
   </si>
   <si>
-    <t>产品UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过程中</t>
   </si>
   <si>
@@ -123,12 +119,6 @@
   </si>
   <si>
     <t>持续寻找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步资源：德邦
-快递的选择，可能影响研发进度
-早启动，早有解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,6 +153,36 @@
   </si>
   <si>
     <t>已经打样。码出来后续跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品UI-支付宝版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品UI-冠德陆陆畅版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务原型-冠德版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品UI-冠德版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵、戴鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪晓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步资源：德邦、圆通
+快递的选择，可能影响研发进度
+早启动，早有解决方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +219,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +248,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,18 +317,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +344,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -617,24 +679,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="A1" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -647,308 +709,350 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>20180222</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="B5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="13">
         <v>20180228</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="32">
+        <v>20180315</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="20">
-        <v>20180315</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="F6" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6">
-        <v>20180331</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20180320</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20180405</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6">
-        <v>20180415</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="D14" s="19">
+        <v>20180303</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="19">
+        <v>20180305</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16">
+        <v>20180305</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20180320</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4">
+        <v>20180325</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="23">
-        <v>20180303</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <v>2</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="23">
-        <v>20180305</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>3</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20">
-        <v>20180305</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
-        <v>20180320</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20180405</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>3</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8 E11:E13 E16:E18 E20:E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E11 E14:E16 E19:E21 E23:E38">
       <formula1>"未启动,过程中,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,12 +221,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,12 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,24 +321,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,23 +348,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +668,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -679,24 +683,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -755,56 +759,60 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="30">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="16">
         <v>20180315</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="25">
+        <v>20180302</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="28">
         <v>20180320</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
@@ -816,9 +824,13 @@
       <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="10">
+        <v>20180310</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
@@ -830,9 +842,13 @@
       <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="10">
+        <v>20180320</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -850,17 +866,17 @@
       <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -883,74 +899,74 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
+      <c r="A14" s="29">
         <v>1</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="31">
         <v>20180303</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
+      <c r="A15" s="29">
         <v>2</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="31">
         <v>20180305</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="32">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="34">
         <v>20180305</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -988,7 +1004,7 @@
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1008,7 +1024,7 @@
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
@@ -1031,14 +1047,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/product/扫码挪车/1.0计划表.xlsx
+++ b/product/扫码挪车/1.0计划表.xlsx
@@ -55,10 +55,6 @@
     <t>过程中</t>
   </si>
   <si>
-    <t>支付宝小程序版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未启动</t>
   </si>
   <si>
@@ -183,6 +179,10 @@
     <t>初步资源：德邦、圆通
 快递的选择，可能影响研发进度
 早启动，早有解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝小程序的版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,24 +330,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,6 +366,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -683,24 +683,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -713,10 +713,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -745,10 +745,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="13">
         <v>20180228</v>
@@ -763,120 +763,120 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="16">
         <v>20180315</v>
       </c>
       <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="19">
+        <v>20180302</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="25">
-        <v>20180302</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
-        <v>5</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="D8" s="22">
         <v>20180320</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10">
         <v>20180310</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="10">
         <v>20180320</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6">
         <v>20180405</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -889,84 +889,84 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="29">
+      <c r="A14" s="23">
         <v>1</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="25">
+        <v>20180303</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="31">
-        <v>20180303</v>
-      </c>
-      <c r="E14" s="30" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="25">
+        <v>20180305</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="29">
-        <v>2</v>
-      </c>
-      <c r="B15" s="30" t="s">
+      <c r="F15" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.35">
+      <c r="A16" s="26">
+        <v>3</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="31">
+      <c r="C16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28">
         <v>20180305</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.35">
-      <c r="A16" s="32">
-        <v>3</v>
-      </c>
-      <c r="B16" s="33" t="s">
+      <c r="E16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="34">
-        <v>20180305</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -979,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>4</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -1002,10 +1002,10 @@
         <v>20180320</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -1013,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -1022,39 +1022,39 @@
         <v>20180325</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
